--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S787296\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S787296\Documents\kirthi-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,10 +35,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>Done</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,10 +399,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,10 +410,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -421,10 +421,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -432,10 +432,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>SNO</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B11"/>
+      <selection activeCell="B3" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -410,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -421,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -432,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -443,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>SNO</t>
   </si>
@@ -92,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B6"/>
+      <selection activeCell="A12" sqref="A12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +508,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
